--- a/biology/Microbiologie/Choreotrichida/Choreotrichida.xlsx
+++ b/biology/Microbiologie/Choreotrichida/Choreotrichida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Choreotrichida sont un ordre de Ciliés de la classe des Oligotrichea.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Choreotrichida Small &amp; Lynn, 1985[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Choreotrichida Small &amp; Lynn, 1985.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (27 septembre 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (27 septembre 2022) :
 Ascampbelliellidae Corliss, 1960
 Cyttarocylididae Kofoid &amp; Campbell, 1939
 Epiplocylididae Kofoid &amp; Campbell, 1939
@@ -560,13 +576,13 @@
 Tintinnidiidae Kofoid &amp; Campbell, 1929
 Undellidae Kofoid &amp; Campbell, 1929
 Xystonellidae Kofoid &amp; Campbell, 1929
-Selon The Taxonomicon  (27 septembre 2022)[1]
+Selon The Taxonomicon  (27 septembre 2022)
 Leegaardiellidae Lynn &amp; Montagnes, 1988
 Lohmanniellidae Montagnes &amp; Lynn, 1991
 Strobilidiidae Kahl, in Doflein &amp; Reichenow, 1929
 Strombidinopsidae Small &amp; Lynn, 1985
 The Taxonomicon classe les autres familles de GBIF dans l'ordre des Tintinnida Kofoid &amp; Campbell, 1929.
-Selon le World Register of Marine Species                               (30 septembre 2023)[3] :
+Selon le World Register of Marine Species                               (30 septembre 2023) :
 sous-ordre des Leegaardiellina Laval-Peuto, Grain &amp; Deroux, 1994
 Leegaardiellidae Lynn &amp; Montagnes, 1988
 sous-ordre des Lohmanniellina Laval-Peuto, Grain &amp; Deroux, 1994
